--- a/output/StructureDefinition-ndh-Organization.xlsx
+++ b/output/StructureDefinition-ndh-Organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T20:37:10-04:00</t>
+    <t>2022-10-31T22:12:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,7 +605,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-rating}
 </t>
   </si>
   <si>
@@ -619,7 +619,7 @@
     <t>paymentaccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/paymentAccepted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-paymentAccepted}
 </t>
   </si>
   <si>
@@ -632,7 +632,7 @@
     <t>fundingSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/fundingSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-fundingSource}
 </t>
   </si>
   <si>
@@ -645,7 +645,7 @@
     <t>org-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/org-description}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-org-description}
 </t>
   </si>
   <si>
@@ -1061,7 +1061,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-via-intermediary}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-ndh-Organization.xlsx
+++ b/output/StructureDefinition-ndh-Organization.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH Organization</t>
+    <t>NDH Base Organization</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:12:57-04:00</t>
+    <t>2022-11-04T11:24:16-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
